--- a/Ecopulpers/Sensitivity Results/impact_1.xlsx
+++ b/Ecopulpers/Sensitivity Results/impact_1.xlsx
@@ -637,19 +637,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E4">
-        <v>0.6095127109438181</v>
+        <v>0.5165131436660886</v>
       </c>
       <c r="F4">
-        <v>0.6349091275114823</v>
+        <v>0.5380345700837681</v>
       </c>
       <c r="G4">
-        <v>1.575028546084203</v>
+        <v>1.858616630980249</v>
       </c>
       <c r="H4">
-        <v>0.02927190608170349</v>
+        <v>1.397888238730957</v>
       </c>
       <c r="I4">
-        <v>0.0004332929202064406</v>
+        <v>0.0002506964628992137</v>
       </c>
       <c r="J4">
         <v>0.003066791364290111</v>
@@ -670,7 +670,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P4">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q4">
         <v>0.2802074924111366</v>
@@ -682,10 +682,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T4">
-        <v>-0.2905610323796282</v>
+        <v>-13.97672435887216</v>
       </c>
       <c r="U4">
-        <v>-0.002353132771531818</v>
+        <v>-0.0005271681984595489</v>
       </c>
       <c r="V4">
         <v>-0.03065929046351812</v>
@@ -710,19 +710,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E5">
-        <v>0.6095126429572701</v>
+        <v>0.5165130766108632</v>
       </c>
       <c r="F5">
-        <v>0.6349090566921555</v>
+        <v>0.5380345002345691</v>
       </c>
       <c r="G5">
-        <v>1.575028721766784</v>
+        <v>1.85861687227125</v>
       </c>
       <c r="H5">
-        <v>0.02927190586342476</v>
+        <v>1.397888238512678</v>
       </c>
       <c r="I5">
-        <v>0.0004332928347139386</v>
+        <v>0.0002506963774067117</v>
       </c>
       <c r="J5">
         <v>0.003066791362471122</v>
@@ -743,7 +743,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P5">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q5">
         <v>0.2802074924111366</v>
@@ -755,10 +755,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T5">
-        <v>-0.2905610301968409</v>
+        <v>-13.97672435668937</v>
       </c>
       <c r="U5">
-        <v>-0.002353131916606799</v>
+        <v>-0.0005271673435345292</v>
       </c>
       <c r="V5">
         <v>-0.03065929044532822</v>
@@ -783,19 +783,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E6">
-        <v>0.6095125759020448</v>
+        <v>0.5165130095556378</v>
       </c>
       <c r="F6">
-        <v>0.6349089868429565</v>
+        <v>0.5380344303853701</v>
       </c>
       <c r="G6">
-        <v>1.575028895042792</v>
+        <v>1.858617113562313</v>
       </c>
       <c r="H6">
-        <v>0.02927190563059412</v>
+        <v>1.397888238279847</v>
       </c>
       <c r="I6">
-        <v>0.0004332927455834579</v>
+        <v>0.0002506962882762309</v>
       </c>
       <c r="J6">
         <v>0.003066791362471122</v>
@@ -816,7 +816,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P6">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q6">
         <v>0.2802074924111366</v>
@@ -828,10 +828,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T6">
-        <v>-0.2905610278685344</v>
+        <v>-13.97672435436107</v>
       </c>
       <c r="U6">
-        <v>-0.002353131025301991</v>
+        <v>-0.0005271664522297215</v>
       </c>
       <c r="V6">
         <v>-0.03065929044532822</v>
@@ -856,19 +856,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E7">
-        <v>0.6095125088468194</v>
+        <v>0.5165129406377673</v>
       </c>
       <c r="F7">
-        <v>0.6349089169937575</v>
+        <v>0.5380343585959156</v>
       </c>
       <c r="G7">
-        <v>1.575029068318837</v>
+        <v>1.858617361555971</v>
       </c>
       <c r="H7">
-        <v>0.02927190539776348</v>
+        <v>1.397888238047017</v>
       </c>
       <c r="I7">
-        <v>0.0004332926619099453</v>
+        <v>0.0002506962027837289</v>
       </c>
       <c r="J7">
         <v>0.003066791362471122</v>
@@ -889,7 +889,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P7">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q7">
         <v>0.2802074924111366</v>
@@ -901,10 +901,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T7">
-        <v>-0.290561025540228</v>
+        <v>-13.97672435203276</v>
       </c>
       <c r="U7">
-        <v>-0.002353130188566865</v>
+        <v>-0.0005271655973047018</v>
       </c>
       <c r="V7">
         <v>-0.03065929044532822</v>
@@ -929,19 +929,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E8">
-        <v>0.609512441791594</v>
+        <v>0.5165128735825419</v>
       </c>
       <c r="F8">
-        <v>0.6349088471445585</v>
+        <v>0.5380342887467167</v>
       </c>
       <c r="G8">
-        <v>1.575029241594922</v>
+        <v>1.858617602847161</v>
       </c>
       <c r="H8">
-        <v>0.02927190519403666</v>
+        <v>1.397888237828738</v>
       </c>
       <c r="I8">
-        <v>0.0004332925727794645</v>
+        <v>0.0002506961136532482</v>
       </c>
       <c r="J8">
         <v>0.003066791360652132</v>
@@ -962,7 +962,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P8">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q8">
         <v>0.2802074924111366</v>
@@ -974,10 +974,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T8">
-        <v>-0.2905610235029599</v>
+        <v>-13.97672434984997</v>
       </c>
       <c r="U8">
-        <v>-0.002353129297262058</v>
+        <v>-0.0005271647059998941</v>
       </c>
       <c r="V8">
         <v>-0.03065929042713833</v>
@@ -1002,19 +1002,19 @@
         <v>0.9599999189376831</v>
       </c>
       <c r="E9">
-        <v>0.6095123728737235</v>
+        <v>0.5165128046646714</v>
       </c>
       <c r="F9">
-        <v>0.634908775355104</v>
+        <v>0.5380342169572621</v>
       </c>
       <c r="G9">
-        <v>1.57502941968427</v>
+        <v>1.85861785084095</v>
       </c>
       <c r="H9">
-        <v>0.0292719049466541</v>
+        <v>1.397888237581355</v>
       </c>
       <c r="I9">
-        <v>0.0004332924836489838</v>
+        <v>0.0002506960263417568</v>
       </c>
       <c r="J9">
         <v>0.003066791360652132</v>
@@ -1035,7 +1035,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P9">
-        <v>8.62317938299384e-06</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="Q9">
         <v>0.2802074924111366</v>
@@ -1047,10 +1047,10 @@
         <v>0.507281495956704</v>
       </c>
       <c r="T9">
-        <v>-0.2905610210291343</v>
+        <v>-13.97672434737615</v>
       </c>
       <c r="U9">
-        <v>-0.00235312840595725</v>
+        <v>-0.0005271638328849804</v>
       </c>
       <c r="V9">
         <v>-0.03065929042713833</v>
